--- a/output/missing-values-condom_access.xlsx
+++ b/output/missing-values-condom_access.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t xml:space="preserve">TSH0046</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0080</t>
   </si>
   <si>
@@ -116,18 +122,33 @@
     <t xml:space="preserve">TSH0237</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0274</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0281</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0312</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0346</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0374</t>
   </si>
   <si>
@@ -146,6 +167,9 @@
     <t xml:space="preserve">TSH0671</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0701</t>
   </si>
   <si>
@@ -173,15 +197,24 @@
     <t xml:space="preserve">TSH0791</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0794</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0813</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0818</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0834</t>
   </si>
   <si>
@@ -194,6 +227,9 @@
     <t xml:space="preserve">TSH0857</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0911</t>
   </si>
   <si>
@@ -212,9 +248,15 @@
     <t xml:space="preserve">TSH0927</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0939</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0943</t>
   </si>
   <si>
@@ -320,6 +362,9 @@
     <t xml:space="preserve">TSH1318</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1357</t>
   </si>
   <si>
@@ -383,6 +428,9 @@
     <t xml:space="preserve">TSH1633</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1693</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1802</t>
   </si>
   <si>
@@ -390,6 +438,9 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
   </si>
 </sst>
 </file>
@@ -887,7 +938,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -911,7 +962,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -923,7 +974,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -941,7 +992,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37"/>
     </row>
@@ -1499,39 +1550,141 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>127</v>
+      </c>
+      <c r="B136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
